--- a/assets/effectifs.xlsx
+++ b/assets/effectifs.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\studentgithub_kyotolesson\kyoto-lesson.github.io\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E07FCB-8CF6-4EDB-807F-044B7DA3A7B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="effectifs" sheetId="1" r:id="rId3"/>
+    <sheet name="effectifs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>maternelle</t>
   </si>
@@ -33,35 +50,38 @@
   <si>
     <t>secondaire</t>
   </si>
+  <si>
+    <t>année</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -69,9 +89,21 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -85,543 +117,2664 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE0F7FA"/>
+          <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0F7FA"/>
-          <bgColor rgb="FFE0F7FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="effectifs-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="effectifs-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF64A7DA"/>
+      <color rgb="FF2CBBAE"/>
+      <color rgb="FFB3D033"/>
+      <color rgb="FFE76A63"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FF339933"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0"/>
+              <a:t>Évolution des effectifs depuis 1997</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="35"/>
+      <c:rotY val="30"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>effectifs!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maternelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="64A7DA"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>effectifs!$B$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>effectifs!$B$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000049-FD7C-4EF6-A415-E27A4F0452AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>effectifs!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>élémentaire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CBBAE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>effectifs!$B$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>effectifs!$B$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004A-FD7C-4EF6-A415-E27A4F0452AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>effectifs!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collège</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B3D033"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>effectifs!$B$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>effectifs!$B$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-FD7C-4EF6-A415-E27A4F0452AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>effectifs!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lycée</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E76A63"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>effectifs!$B$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>effectifs!$B$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004C-FD7C-4EF6-A415-E27A4F0452AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="95"/>
+        <c:gapDepth val="95"/>
+        <c:shape val="box"/>
+        <c:axId val="1598988944"/>
+        <c:axId val="1917410784"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1598988944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917410784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1917410784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1598988944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="310">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>921543</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE44381-D29D-4E77-9993-56D23C6A2B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A3:W6" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:W6" headerRowCount="0">
   <tableColumns count="23">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
   </tableColumns>
-  <tableStyleInfo name="effectifs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="effectifs-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="2">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="C2" s="2">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="D2" s="2">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="E2" s="2">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="2">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="G2" s="2">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="H2" s="2">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="I2" s="2">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="J2" s="2">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="K2" s="2">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="L2" s="2">
-        <v>2007.0</v>
+        <v>2007</v>
       </c>
       <c r="M2" s="2">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="N2" s="2">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="O2" s="2">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="P2" s="2">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="Q2" s="2">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="R2" s="2">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="S2" s="2">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="T2" s="2">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="U2" s="2">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="V2" s="2">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="W2" s="2">
-        <v>2018.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L3" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N3" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O3" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P3" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="S3" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T3" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="U3" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="V3" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="W3" s="4">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J4" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K4" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="N4" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="P4" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="R4" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="S4" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="T4" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="U4" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="V4" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="W4" s="4">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
       <c r="D5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J5" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L5" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="M5" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O5" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="R5" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="S5" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="T5" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="U5" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="V5" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="W5" s="4">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
       <c r="J6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="T6" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U6" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="V6" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="W6" s="4">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J7" s="7">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="M7" s="7">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="O7" s="7">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="S7" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="T7" s="7">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="U7" s="7">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="V7" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="W7" s="7">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -643,226 +2796,551 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="C9" s="10">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="D9" s="10">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="E9" s="10">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="10">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="G9" s="10">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="H9" s="10">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="I9" s="10">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="J9" s="10">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="K9" s="10">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="L9" s="10">
-        <v>2007.0</v>
+        <v>2007</v>
       </c>
       <c r="M9" s="10">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="N9" s="10">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="O9" s="10">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="P9" s="10">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="Q9" s="10">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="R9" s="10">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="S9" s="10">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="T9" s="10">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="U9" s="10">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="V9" s="10">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="W9" s="10">
-        <v>2018.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="12">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="F10" s="12">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="G10" s="12">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H10" s="12">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I10" s="12">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="J10" s="12">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="K10" s="12">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="L10" s="12">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="M10" s="12">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="N10" s="12">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="O10" s="12">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P10" s="12">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="12">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="R10" s="12">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="S10" s="12">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="T10" s="12">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="U10" s="12">
-        <v>66.0</v>
+        <v>65</v>
       </c>
       <c r="V10" s="12">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="W10" s="12">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I11" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J11" s="12">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K11" s="12">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L11" s="12">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="M11" s="12">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="N11" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O11" s="12">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="P11" s="12">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="12">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="R11" s="12">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="S11" s="12">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="T11" s="12">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="U11" s="12">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="V11" s="12">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="W11" s="12">
-        <v>37.0</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>